--- a/data/pca/factorExposure/factorExposure_2009-07-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01658247964001463</v>
+        <v>0.01638358787342952</v>
       </c>
       <c r="C2">
-        <v>0.001251800033752795</v>
+        <v>-0.0007968815216896735</v>
       </c>
       <c r="D2">
-        <v>0.0080694762370745</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009066510445154496</v>
+      </c>
+      <c r="E2">
+        <v>0.00122967860931208</v>
+      </c>
+      <c r="F2">
+        <v>-0.01473415270761501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09094637362748206</v>
+        <v>0.09168792875153298</v>
       </c>
       <c r="C4">
-        <v>0.01975212582817787</v>
+        <v>-0.01438430623054468</v>
       </c>
       <c r="D4">
-        <v>0.07302013978898848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0831292145562791</v>
+      </c>
+      <c r="E4">
+        <v>0.02786717842936526</v>
+      </c>
+      <c r="F4">
+        <v>0.03084268973383487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1515837881389955</v>
+        <v>0.161243811367465</v>
       </c>
       <c r="C6">
-        <v>0.02870751654937705</v>
+        <v>-0.02783180208569941</v>
       </c>
       <c r="D6">
-        <v>-0.03099385382141112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02648184420205917</v>
+      </c>
+      <c r="E6">
+        <v>0.008923432841341299</v>
+      </c>
+      <c r="F6">
+        <v>0.04164606087595234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06189979408956547</v>
+        <v>0.06273383918009928</v>
       </c>
       <c r="C7">
-        <v>0.002265232627472313</v>
+        <v>0.0016877488850359</v>
       </c>
       <c r="D7">
-        <v>0.04400389605138304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05245481608557199</v>
+      </c>
+      <c r="E7">
+        <v>0.01236039043243768</v>
+      </c>
+      <c r="F7">
+        <v>0.04661180247399122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06269211931694216</v>
+        <v>0.0580695521942857</v>
       </c>
       <c r="C8">
-        <v>-0.01069632671001884</v>
+        <v>0.01259233323891965</v>
       </c>
       <c r="D8">
-        <v>0.02685558363839573</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03047738849900953</v>
+      </c>
+      <c r="E8">
+        <v>0.01714981502617201</v>
+      </c>
+      <c r="F8">
+        <v>-0.02508912014861332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.0708642635317908</v>
+        <v>0.07070059080008546</v>
       </c>
       <c r="C9">
-        <v>0.01651515482074873</v>
+        <v>-0.01027023551112303</v>
       </c>
       <c r="D9">
-        <v>0.07302969625932185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08623938103797057</v>
+      </c>
+      <c r="E9">
+        <v>0.02406129463668198</v>
+      </c>
+      <c r="F9">
+        <v>0.04695042279099933</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08570069823850222</v>
+        <v>0.08914788218806637</v>
       </c>
       <c r="C10">
-        <v>0.01392829465049287</v>
+        <v>-0.02124273356000389</v>
       </c>
       <c r="D10">
-        <v>-0.1656245727527756</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1608058952193386</v>
+      </c>
+      <c r="E10">
+        <v>-0.03145962941322213</v>
+      </c>
+      <c r="F10">
+        <v>-0.05734470235816682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09110562677693336</v>
+        <v>0.08785458416810243</v>
       </c>
       <c r="C11">
-        <v>0.01748972626035878</v>
+        <v>-0.01095209186756317</v>
       </c>
       <c r="D11">
-        <v>0.1038097206252595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1175330043254832</v>
+      </c>
+      <c r="E11">
+        <v>0.04683254731883119</v>
+      </c>
+      <c r="F11">
+        <v>0.02244575008566491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09638686630385052</v>
+        <v>0.090611410913133</v>
       </c>
       <c r="C12">
-        <v>0.01529997913451833</v>
+        <v>-0.008134315704172258</v>
       </c>
       <c r="D12">
-        <v>0.107097548326153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1321796872153212</v>
+      </c>
+      <c r="E12">
+        <v>0.04585732199019991</v>
+      </c>
+      <c r="F12">
+        <v>0.03134442791333564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04389176934862365</v>
+        <v>0.04339280822041119</v>
       </c>
       <c r="C13">
-        <v>0.005700450245432367</v>
+        <v>-0.0022573903469634</v>
       </c>
       <c r="D13">
-        <v>0.03365643518901702</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05351407195092498</v>
+      </c>
+      <c r="E13">
+        <v>-0.001068525032151033</v>
+      </c>
+      <c r="F13">
+        <v>0.001078581926953588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01857006943568801</v>
+        <v>0.02314699738833773</v>
       </c>
       <c r="C14">
-        <v>0.01486334437602644</v>
+        <v>-0.01367359741025469</v>
       </c>
       <c r="D14">
-        <v>0.02688536027709596</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03321888127341811</v>
+      </c>
+      <c r="E14">
+        <v>0.01799106333305132</v>
+      </c>
+      <c r="F14">
+        <v>0.01184894876159491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03349149528803581</v>
+        <v>0.0331846091386537</v>
       </c>
       <c r="C15">
-        <v>0.007435850724615736</v>
+        <v>-0.005109996639629673</v>
       </c>
       <c r="D15">
-        <v>0.03848105526536234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0462359023260111</v>
+      </c>
+      <c r="E15">
+        <v>0.007098829921872125</v>
+      </c>
+      <c r="F15">
+        <v>0.02773613357661219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07563071248622831</v>
+        <v>0.07311625294401573</v>
       </c>
       <c r="C16">
-        <v>0.00804766007934582</v>
+        <v>-0.001315159556865226</v>
       </c>
       <c r="D16">
-        <v>0.1060076662502989</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1284623680897163</v>
+      </c>
+      <c r="E16">
+        <v>0.06126823685030858</v>
+      </c>
+      <c r="F16">
+        <v>0.02642009197824621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0004035008357715157</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0002407054469862853</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001566190327143158</v>
+      </c>
+      <c r="E17">
+        <v>0.001187442114519795</v>
+      </c>
+      <c r="F17">
+        <v>-0.002462309203691953</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01816425210641946</v>
+        <v>0.03905621272984643</v>
       </c>
       <c r="C18">
-        <v>-0.003162094647873956</v>
+        <v>0.002880893884636734</v>
       </c>
       <c r="D18">
-        <v>0.02731989858177221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01544650843597437</v>
+      </c>
+      <c r="E18">
+        <v>-0.007325842634240118</v>
+      </c>
+      <c r="F18">
+        <v>-0.009177718480587991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06400017193777123</v>
+        <v>0.06255083729412361</v>
       </c>
       <c r="C20">
-        <v>0.005848624831424805</v>
+        <v>-0.0007447302992292923</v>
       </c>
       <c r="D20">
-        <v>0.0638459909066063</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07849587911770284</v>
+      </c>
+      <c r="E20">
+        <v>0.05668055203342602</v>
+      </c>
+      <c r="F20">
+        <v>0.0298359510019222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03846655371441736</v>
+        <v>0.04123845705230806</v>
       </c>
       <c r="C21">
-        <v>0.009647495582280162</v>
+        <v>-0.006569451269230279</v>
       </c>
       <c r="D21">
-        <v>0.03564212289855508</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03767495863025053</v>
+      </c>
+      <c r="E21">
+        <v>-0.00134030474091508</v>
+      </c>
+      <c r="F21">
+        <v>-0.0230255813861222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04210378917330584</v>
+        <v>0.04421449541410712</v>
       </c>
       <c r="C22">
-        <v>0.001795983923499376</v>
+        <v>-0.00151987638221313</v>
       </c>
       <c r="D22">
-        <v>-0.003401161031456313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006193200755543731</v>
+      </c>
+      <c r="E22">
+        <v>0.04032255843752205</v>
+      </c>
+      <c r="F22">
+        <v>-0.03777968144725674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04206661262010374</v>
+        <v>0.04419038161750156</v>
       </c>
       <c r="C23">
-        <v>0.001785724102885918</v>
+        <v>-0.001511070425245327</v>
       </c>
       <c r="D23">
-        <v>-0.003377924171338948</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006207937097582096</v>
+      </c>
+      <c r="E23">
+        <v>0.04050515131353584</v>
+      </c>
+      <c r="F23">
+        <v>-0.03774164534713416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08223773492275509</v>
+        <v>0.07902992259776533</v>
       </c>
       <c r="C24">
-        <v>0.008334008455006578</v>
+        <v>-0.001986834511381653</v>
       </c>
       <c r="D24">
-        <v>0.1092369917782209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1206851641394383</v>
+      </c>
+      <c r="E24">
+        <v>0.04879817157145229</v>
+      </c>
+      <c r="F24">
+        <v>0.02909421557688876</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08756286627488205</v>
+        <v>0.08404570498733686</v>
       </c>
       <c r="C25">
-        <v>0.01097919422733779</v>
+        <v>-0.004660311736930158</v>
       </c>
       <c r="D25">
-        <v>0.09515044388752297</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1099368010893668</v>
+      </c>
+      <c r="E25">
+        <v>0.03202337270836315</v>
+      </c>
+      <c r="F25">
+        <v>0.02584705507168276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05779595712016478</v>
+        <v>0.05938181060145433</v>
       </c>
       <c r="C26">
-        <v>0.0174976796091135</v>
+        <v>-0.01457064407779334</v>
       </c>
       <c r="D26">
-        <v>0.02574972984887478</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04354891332863937</v>
+      </c>
+      <c r="E26">
+        <v>0.0300973555103709</v>
+      </c>
+      <c r="F26">
+        <v>-0.007079705252664662</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1331740020850577</v>
+        <v>0.1415408278535967</v>
       </c>
       <c r="C28">
-        <v>0.01285432416379556</v>
+        <v>-0.02274125594820468</v>
       </c>
       <c r="D28">
-        <v>-0.2705198077448602</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2609974415156199</v>
+      </c>
+      <c r="E28">
+        <v>-0.06858260619728881</v>
+      </c>
+      <c r="F28">
+        <v>0.003061995061346439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02534385726110087</v>
+        <v>0.02859331799941018</v>
       </c>
       <c r="C29">
-        <v>0.009630231342651285</v>
+        <v>-0.008848062708847009</v>
       </c>
       <c r="D29">
-        <v>0.02503255654622688</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03102412749730036</v>
+      </c>
+      <c r="E29">
+        <v>0.01316003112562694</v>
+      </c>
+      <c r="F29">
+        <v>-0.01385852760340188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06350842586497424</v>
+        <v>0.05846052945618554</v>
       </c>
       <c r="C30">
-        <v>0.009702030240709612</v>
+        <v>-0.002733831876562884</v>
       </c>
       <c r="D30">
-        <v>0.06962346340039675</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08793533269338506</v>
+      </c>
+      <c r="E30">
+        <v>0.0123828063439304</v>
+      </c>
+      <c r="F30">
+        <v>0.07976308262682008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05053856481411372</v>
+        <v>0.0510179581298798</v>
       </c>
       <c r="C31">
-        <v>0.01709129401358245</v>
+        <v>-0.01597209970978311</v>
       </c>
       <c r="D31">
-        <v>0.02195565608570545</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02484855086255599</v>
+      </c>
+      <c r="E31">
+        <v>0.0286869222852311</v>
+      </c>
+      <c r="F31">
+        <v>-0.001674616373966889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04631300021091753</v>
+        <v>0.05122646145173664</v>
       </c>
       <c r="C32">
-        <v>0.002047584811509382</v>
+        <v>0.001609257858604722</v>
       </c>
       <c r="D32">
-        <v>0.02216556772542176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03515152610196898</v>
+      </c>
+      <c r="E32">
+        <v>0.03351213914084284</v>
+      </c>
+      <c r="F32">
+        <v>0.001935299752817833</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09161642559546025</v>
+        <v>0.08923041713590907</v>
       </c>
       <c r="C33">
-        <v>0.01385727875262343</v>
+        <v>-0.006805348550909565</v>
       </c>
       <c r="D33">
-        <v>0.08236884528895666</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1034779522273941</v>
+      </c>
+      <c r="E33">
+        <v>0.0459603080683738</v>
+      </c>
+      <c r="F33">
+        <v>0.04090817956555727</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06899713265300279</v>
+        <v>0.06754372965467818</v>
       </c>
       <c r="C34">
-        <v>0.01570497855418848</v>
+        <v>-0.01021434040282496</v>
       </c>
       <c r="D34">
-        <v>0.0903546749264675</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1093470339337981</v>
+      </c>
+      <c r="E34">
+        <v>0.03499044382248757</v>
+      </c>
+      <c r="F34">
+        <v>0.03237566721240212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02428414425764168</v>
+        <v>0.02617424274819113</v>
       </c>
       <c r="C35">
-        <v>0.003086754362490224</v>
+        <v>-0.002934590257312577</v>
       </c>
       <c r="D35">
-        <v>0.006470607552878126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01180495852538541</v>
+      </c>
+      <c r="E35">
+        <v>0.01244502470037684</v>
+      </c>
+      <c r="F35">
+        <v>0.0006677749361525215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02596518636436903</v>
+        <v>0.02778826515686111</v>
       </c>
       <c r="C36">
-        <v>0.007765943104609146</v>
+        <v>-0.00687254328546625</v>
       </c>
       <c r="D36">
-        <v>0.03930955371545653</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03941583867703699</v>
+      </c>
+      <c r="E36">
+        <v>0.01649776604296066</v>
+      </c>
+      <c r="F36">
+        <v>0.01486415796478148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.000715565551402994</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0007392699945978493</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.00254173922298242</v>
+      </c>
+      <c r="E37">
+        <v>-0.000242482416258544</v>
+      </c>
+      <c r="F37">
+        <v>-0.002480365771093768</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1140347882456263</v>
+        <v>0.1027359167240505</v>
       </c>
       <c r="C39">
-        <v>0.02391601597943601</v>
+        <v>-0.01604654593520355</v>
       </c>
       <c r="D39">
-        <v>0.1446482418159191</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1520971311457355</v>
+      </c>
+      <c r="E39">
+        <v>0.05773648283502006</v>
+      </c>
+      <c r="F39">
+        <v>0.02966150848969042</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03822541225051174</v>
+        <v>0.04315872197827145</v>
       </c>
       <c r="C40">
-        <v>0.009247076412849171</v>
+        <v>-0.007481387085849054</v>
       </c>
       <c r="D40">
-        <v>0.01739135856916427</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03236053737330065</v>
+      </c>
+      <c r="E40">
+        <v>0.002628396866855125</v>
+      </c>
+      <c r="F40">
+        <v>-0.01868173382949831</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02568954805143539</v>
+        <v>0.02803715640979379</v>
       </c>
       <c r="C41">
-        <v>0.007370599329395506</v>
+        <v>-0.006860645678025776</v>
       </c>
       <c r="D41">
-        <v>0.008003464062301418</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01085303588746457</v>
+      </c>
+      <c r="E41">
+        <v>0.01229581985504133</v>
+      </c>
+      <c r="F41">
+        <v>-0.005786547952557603</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04228620563253626</v>
+        <v>0.04050674283804488</v>
       </c>
       <c r="C43">
-        <v>0.008300561622155471</v>
+        <v>-0.007495456379017787</v>
       </c>
       <c r="D43">
-        <v>0.01541703317394537</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01908425985268085</v>
+      </c>
+      <c r="E43">
+        <v>0.02550228482668602</v>
+      </c>
+      <c r="F43">
+        <v>-0.01370941132922373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0706732650754533</v>
+        <v>0.07903780342666815</v>
       </c>
       <c r="C44">
-        <v>0.02555037561026604</v>
+        <v>-0.01942821887089049</v>
       </c>
       <c r="D44">
-        <v>0.08967543402889837</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09597447434020573</v>
+      </c>
+      <c r="E44">
+        <v>0.06011389026356509</v>
+      </c>
+      <c r="F44">
+        <v>0.1617016954350755</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02192603493590413</v>
+        <v>0.02450104145193329</v>
       </c>
       <c r="C46">
-        <v>0.004119155729826691</v>
+        <v>-0.003621325322091342</v>
       </c>
       <c r="D46">
-        <v>0.005989381969446672</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01272870426128338</v>
+      </c>
+      <c r="E46">
+        <v>0.02725479473131683</v>
+      </c>
+      <c r="F46">
+        <v>-0.006510593485101299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.0525961101178322</v>
+        <v>0.05240385734453582</v>
       </c>
       <c r="C47">
-        <v>0.004779763398467006</v>
+        <v>-0.004131428934233168</v>
       </c>
       <c r="D47">
-        <v>0.008592866362805787</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01022004364096556</v>
+      </c>
+      <c r="E47">
+        <v>0.02341095241000646</v>
+      </c>
+      <c r="F47">
+        <v>-0.03250782028798648</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04806382881206164</v>
+        <v>0.05056773476776893</v>
       </c>
       <c r="C48">
-        <v>0.004757454600948101</v>
+        <v>-0.002035083015223844</v>
       </c>
       <c r="D48">
-        <v>0.04461908761444597</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05026416984521921</v>
+      </c>
+      <c r="E48">
+        <v>-0.004976327998334099</v>
+      </c>
+      <c r="F48">
+        <v>0.008466930754507813</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2027649899659763</v>
+        <v>0.2004013783419879</v>
       </c>
       <c r="C49">
-        <v>0.02215225912097076</v>
+        <v>-0.01952750880052478</v>
       </c>
       <c r="D49">
-        <v>-0.01601353108461792</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005277027882528392</v>
+      </c>
+      <c r="E49">
+        <v>0.0310503409563124</v>
+      </c>
+      <c r="F49">
+        <v>0.04319546072605607</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04951754990207259</v>
+        <v>0.05135011750787878</v>
       </c>
       <c r="C50">
-        <v>0.01314485356327921</v>
+        <v>-0.01172041456540463</v>
       </c>
       <c r="D50">
-        <v>0.0220646106807177</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02330442207208215</v>
+      </c>
+      <c r="E50">
+        <v>0.02945606358583965</v>
+      </c>
+      <c r="F50">
+        <v>0.009778039936260115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1556266625879247</v>
+        <v>0.1494354295147682</v>
       </c>
       <c r="C52">
-        <v>0.02040375571127539</v>
+        <v>-0.01849974338462503</v>
       </c>
       <c r="D52">
-        <v>0.04925982397947262</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04224737369954411</v>
+      </c>
+      <c r="E52">
+        <v>0.02166222471751845</v>
+      </c>
+      <c r="F52">
+        <v>0.04337803228311438</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1734382180323854</v>
+        <v>0.1698887049051159</v>
       </c>
       <c r="C53">
-        <v>0.02050257600199524</v>
+        <v>-0.02105768011853382</v>
       </c>
       <c r="D53">
-        <v>0.01264799595371091</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005363251957815757</v>
+      </c>
+      <c r="E53">
+        <v>0.02881725916616376</v>
+      </c>
+      <c r="F53">
+        <v>0.0737608748814613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01703568052136864</v>
+        <v>0.02012271018289092</v>
       </c>
       <c r="C54">
-        <v>0.01234365727179985</v>
+        <v>-0.01103160043123302</v>
       </c>
       <c r="D54">
-        <v>0.02766994127086821</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03386850370832295</v>
+      </c>
+      <c r="E54">
+        <v>0.02185463373649602</v>
+      </c>
+      <c r="F54">
+        <v>-0.002268837825305335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1168605592918009</v>
+        <v>0.116034759446037</v>
       </c>
       <c r="C55">
-        <v>0.01843111294876614</v>
+        <v>-0.01858551159675831</v>
       </c>
       <c r="D55">
-        <v>0.01088508149246921</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.00859891401045842</v>
+      </c>
+      <c r="E55">
+        <v>0.02560034574785636</v>
+      </c>
+      <c r="F55">
+        <v>0.04654224513922818</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1801622544077988</v>
+        <v>0.1764066967389979</v>
       </c>
       <c r="C56">
-        <v>0.01840548467835205</v>
+        <v>-0.01914091225658304</v>
       </c>
       <c r="D56">
-        <v>0.00563598613582844</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002769287483017792</v>
+      </c>
+      <c r="E56">
+        <v>0.03221683936495467</v>
+      </c>
+      <c r="F56">
+        <v>0.05305222806333441</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04855296881742556</v>
+        <v>0.04584091735592814</v>
       </c>
       <c r="C58">
-        <v>0.005869050005383378</v>
+        <v>0.0004843036343311595</v>
       </c>
       <c r="D58">
-        <v>0.05785342496258338</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07414956748166548</v>
+      </c>
+      <c r="E58">
+        <v>0.03570464932199499</v>
+      </c>
+      <c r="F58">
+        <v>-0.0361913497638456</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1638585320917866</v>
+        <v>0.1666575017418708</v>
       </c>
       <c r="C59">
-        <v>0.01471827713326017</v>
+        <v>-0.02308462522757938</v>
       </c>
       <c r="D59">
-        <v>-0.2268804946158675</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2183946033693095</v>
+      </c>
+      <c r="E59">
+        <v>-0.04877531776895009</v>
+      </c>
+      <c r="F59">
+        <v>-0.03541103528515971</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2379102226474791</v>
+        <v>0.2311977357328861</v>
       </c>
       <c r="C60">
-        <v>0.002128896126282839</v>
+        <v>0.0008530637507714235</v>
       </c>
       <c r="D60">
-        <v>0.04157584834166916</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03942445675816832</v>
+      </c>
+      <c r="E60">
+        <v>0.00651786884586293</v>
+      </c>
+      <c r="F60">
+        <v>0.0001178498762570103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08493947626635617</v>
+        <v>0.0781685253360828</v>
       </c>
       <c r="C61">
-        <v>0.01753541614668455</v>
+        <v>-0.0114271785207434</v>
       </c>
       <c r="D61">
-        <v>0.1033900651568618</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.116818796609002</v>
+      </c>
+      <c r="E61">
+        <v>0.03774386724921427</v>
+      </c>
+      <c r="F61">
+        <v>0.01151888771882361</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1706707857666827</v>
+        <v>0.1686625232560246</v>
       </c>
       <c r="C62">
-        <v>0.02187071286389155</v>
+        <v>-0.02163211609804836</v>
       </c>
       <c r="D62">
-        <v>0.007121647573604314</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.004782855188524621</v>
+      </c>
+      <c r="E62">
+        <v>0.03246084617825442</v>
+      </c>
+      <c r="F62">
+        <v>0.03827100134226921</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04257995236806138</v>
+        <v>0.04626914423613977</v>
       </c>
       <c r="C63">
-        <v>0.005750238665159932</v>
+        <v>-0.001760321494345504</v>
       </c>
       <c r="D63">
-        <v>0.04620911472505237</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06023322842174672</v>
+      </c>
+      <c r="E63">
+        <v>0.02493220860792139</v>
+      </c>
+      <c r="F63">
+        <v>0.00299418984279353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1127925202230573</v>
+        <v>0.1107080044485978</v>
       </c>
       <c r="C64">
-        <v>0.01553224015757206</v>
+        <v>-0.01221687572514746</v>
       </c>
       <c r="D64">
-        <v>0.03270174007803412</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04244022369768665</v>
+      </c>
+      <c r="E64">
+        <v>0.02275592716694723</v>
+      </c>
+      <c r="F64">
+        <v>0.02594209732443064</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1427575900892816</v>
+        <v>0.1520019193932531</v>
       </c>
       <c r="C65">
-        <v>0.03466418454322746</v>
+        <v>-0.03497550500755398</v>
       </c>
       <c r="D65">
-        <v>-0.05663956756736328</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04686592142469879</v>
+      </c>
+      <c r="E65">
+        <v>0.005012899307422256</v>
+      </c>
+      <c r="F65">
+        <v>0.03609905626809523</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1372723896234719</v>
+        <v>0.1231359426687407</v>
       </c>
       <c r="C66">
-        <v>0.02227761560048027</v>
+        <v>-0.0144330482695749</v>
       </c>
       <c r="D66">
-        <v>0.1247501325666872</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1397781077017355</v>
+      </c>
+      <c r="E66">
+        <v>0.06328406394971493</v>
+      </c>
+      <c r="F66">
+        <v>0.03270776403006149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06294163321200631</v>
+        <v>0.05615036857464643</v>
       </c>
       <c r="C67">
-        <v>0.005605311716524586</v>
+        <v>-0.003089114653148649</v>
       </c>
       <c r="D67">
-        <v>0.05480566031566782</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05665801313003137</v>
+      </c>
+      <c r="E67">
+        <v>0.01751203243722452</v>
+      </c>
+      <c r="F67">
+        <v>-0.0299684741447014</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1068809106840167</v>
+        <v>0.1161411682591675</v>
       </c>
       <c r="C68">
-        <v>0.02275956327767496</v>
+        <v>-0.03359837765162976</v>
       </c>
       <c r="D68">
-        <v>-0.267658715347536</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2613178556793466</v>
+      </c>
+      <c r="E68">
+        <v>-0.08825015746807825</v>
+      </c>
+      <c r="F68">
+        <v>-0.00192439124112451</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0402009369063568</v>
+        <v>0.03876916636400521</v>
       </c>
       <c r="C69">
-        <v>0.002190676055901061</v>
+        <v>-0.001280858613357626</v>
       </c>
       <c r="D69">
-        <v>0.006291710518012534</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008246099191361695</v>
+      </c>
+      <c r="E69">
+        <v>0.02390504441714946</v>
+      </c>
+      <c r="F69">
+        <v>0.0007746854513146758</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06601141715372581</v>
+        <v>0.06661759911260301</v>
       </c>
       <c r="C70">
-        <v>-0.02473295823613334</v>
+        <v>0.02713538372795136</v>
       </c>
       <c r="D70">
-        <v>-0.005360722798362094</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02464913146422304</v>
+      </c>
+      <c r="E70">
+        <v>-0.02876187426107234</v>
+      </c>
+      <c r="F70">
+        <v>-0.178973572521083</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1257243035911367</v>
+        <v>0.1362328504721425</v>
       </c>
       <c r="C71">
-        <v>0.02676219173865947</v>
+        <v>-0.03810505129930288</v>
       </c>
       <c r="D71">
-        <v>-0.283852138559228</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2713750093443804</v>
+      </c>
+      <c r="E71">
+        <v>-0.09801513776301364</v>
+      </c>
+      <c r="F71">
+        <v>0.004091623509890237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.13832679957175</v>
+        <v>0.1438768122006526</v>
       </c>
       <c r="C72">
-        <v>0.02799043533737227</v>
+        <v>-0.02794493199452718</v>
       </c>
       <c r="D72">
-        <v>0.00578198590914613</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004877655364042053</v>
+      </c>
+      <c r="E72">
+        <v>0.03626412025742552</v>
+      </c>
+      <c r="F72">
+        <v>0.03060317208452244</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2078070790409549</v>
+        <v>0.2050130790557083</v>
       </c>
       <c r="C73">
-        <v>0.01756087600697638</v>
+        <v>-0.0135448161551077</v>
       </c>
       <c r="D73">
-        <v>0.009625243385488112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01766623398181502</v>
+      </c>
+      <c r="E73">
+        <v>0.06622412203186241</v>
+      </c>
+      <c r="F73">
+        <v>0.03940268671736221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09376057098413318</v>
+        <v>0.09535792887974687</v>
       </c>
       <c r="C74">
-        <v>0.01441732726464751</v>
+        <v>-0.01409906698918373</v>
       </c>
       <c r="D74">
-        <v>0.01943517149307373</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01713592017289059</v>
+      </c>
+      <c r="E74">
+        <v>0.04369001290427798</v>
+      </c>
+      <c r="F74">
+        <v>0.05489854678037887</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1335218951706126</v>
+        <v>0.1268633445508178</v>
       </c>
       <c r="C75">
-        <v>0.03052098307646796</v>
+        <v>-0.02920374985984694</v>
       </c>
       <c r="D75">
-        <v>0.03037045050277234</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02845261547873716</v>
+      </c>
+      <c r="E75">
+        <v>0.05681129311564959</v>
+      </c>
+      <c r="F75">
+        <v>0.02289329157937778</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08269010132324583</v>
+        <v>0.090527664754946</v>
       </c>
       <c r="C77">
-        <v>0.01502722541146612</v>
+        <v>-0.008547657782600063</v>
       </c>
       <c r="D77">
-        <v>0.09992556178212482</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1144472691075881</v>
+      </c>
+      <c r="E77">
+        <v>0.04416802681632939</v>
+      </c>
+      <c r="F77">
+        <v>0.03347096028621441</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.0994864887523213</v>
+        <v>0.100697472521137</v>
       </c>
       <c r="C78">
-        <v>0.04420880915200587</v>
+        <v>-0.03858441832925785</v>
       </c>
       <c r="D78">
-        <v>0.1083737155290297</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1117674482961665</v>
+      </c>
+      <c r="E78">
+        <v>0.0750118323286683</v>
+      </c>
+      <c r="F78">
+        <v>0.05317544507995032</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1646100573349978</v>
+        <v>0.1631800444245604</v>
       </c>
       <c r="C79">
-        <v>0.0251407493494182</v>
+        <v>-0.02414472135313112</v>
       </c>
       <c r="D79">
-        <v>0.01250708091737161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01275013132343688</v>
+      </c>
+      <c r="E79">
+        <v>0.04389773847551679</v>
+      </c>
+      <c r="F79">
+        <v>0.01200211120519641</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08102101294751438</v>
+        <v>0.07920015852556811</v>
       </c>
       <c r="C80">
-        <v>0.001289399723256716</v>
+        <v>0.000805938835394566</v>
       </c>
       <c r="D80">
-        <v>0.04965801419027925</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05418831046470382</v>
+      </c>
+      <c r="E80">
+        <v>0.03287348608038641</v>
+      </c>
+      <c r="F80">
+        <v>-0.02245754034574047</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1202443350173456</v>
+        <v>0.1175931150626803</v>
       </c>
       <c r="C81">
-        <v>0.03250200971822362</v>
+        <v>-0.03273798762403459</v>
       </c>
       <c r="D81">
-        <v>0.02378072881833658</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01376051530636744</v>
+      </c>
+      <c r="E81">
+        <v>0.05479341770047493</v>
+      </c>
+      <c r="F81">
+        <v>0.01909273912820928</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1658447258207636</v>
+        <v>0.1654894760097029</v>
       </c>
       <c r="C82">
-        <v>0.02592617502758012</v>
+        <v>-0.0265233132570509</v>
       </c>
       <c r="D82">
-        <v>0.01324235228473223</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002076521963743553</v>
+      </c>
+      <c r="E82">
+        <v>0.02643589787152505</v>
+      </c>
+      <c r="F82">
+        <v>0.08145264605159679</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06336569128157876</v>
+        <v>0.0575025099352422</v>
       </c>
       <c r="C83">
-        <v>0.005738889052712299</v>
+        <v>-0.003235208475024093</v>
       </c>
       <c r="D83">
-        <v>0.042161085339861</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04875975109884616</v>
+      </c>
+      <c r="E83">
+        <v>0.001384578811357606</v>
+      </c>
+      <c r="F83">
+        <v>-0.03042293416548771</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06354199094041797</v>
+        <v>0.05756285592867354</v>
       </c>
       <c r="C84">
-        <v>0.01434912151716819</v>
+        <v>-0.01106460493353582</v>
       </c>
       <c r="D84">
-        <v>0.06576388566127025</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0720183018593943</v>
+      </c>
+      <c r="E84">
+        <v>0.01436274905990278</v>
+      </c>
+      <c r="F84">
+        <v>0.01304044355437087</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1378493319710005</v>
+        <v>0.1345060396032033</v>
       </c>
       <c r="C85">
-        <v>0.02931538601985378</v>
+        <v>-0.02916723977047532</v>
       </c>
       <c r="D85">
-        <v>0.01607513650033581</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009357910723286934</v>
+      </c>
+      <c r="E85">
+        <v>0.03570762854159115</v>
+      </c>
+      <c r="F85">
+        <v>0.04660026600181826</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1012847122895526</v>
+        <v>0.09337417176009599</v>
       </c>
       <c r="C86">
-        <v>-0.002709455207726912</v>
+        <v>0.005891036212836147</v>
       </c>
       <c r="D86">
-        <v>0.0006385391122637946</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04926389803361303</v>
+      </c>
+      <c r="E86">
+        <v>0.237441570611713</v>
+      </c>
+      <c r="F86">
+        <v>-0.9031383964612614</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09986297336574551</v>
+        <v>0.09389847768355143</v>
       </c>
       <c r="C87">
-        <v>0.02831939609143733</v>
+        <v>-0.01963780324774433</v>
       </c>
       <c r="D87">
-        <v>0.0701294567855304</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0957042964635719</v>
+      </c>
+      <c r="E87">
+        <v>-0.05193908855304673</v>
+      </c>
+      <c r="F87">
+        <v>0.0483830049744945</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06002005167912837</v>
+        <v>0.06028475638510282</v>
       </c>
       <c r="C88">
-        <v>0.005332779996896987</v>
+        <v>-0.002664893939049698</v>
       </c>
       <c r="D88">
-        <v>0.05444539703241184</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04988799836756616</v>
+      </c>
+      <c r="E88">
+        <v>0.02398704024359488</v>
+      </c>
+      <c r="F88">
+        <v>0.01622471530258613</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1177422329477383</v>
+        <v>0.1270716802542345</v>
       </c>
       <c r="C89">
-        <v>0.003813355718687366</v>
+        <v>-0.01337616674544005</v>
       </c>
       <c r="D89">
-        <v>-0.2541065392435568</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2449437519474121</v>
+      </c>
+      <c r="E89">
+        <v>-0.09237284568133337</v>
+      </c>
+      <c r="F89">
+        <v>-0.01081470948039965</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1365677581541832</v>
+        <v>0.1508640389240922</v>
       </c>
       <c r="C90">
-        <v>0.02325604144808581</v>
+        <v>-0.03481280541461075</v>
       </c>
       <c r="D90">
-        <v>-0.2692316137041108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2685817667998568</v>
+      </c>
+      <c r="E90">
+        <v>-0.1134710399522049</v>
+      </c>
+      <c r="F90">
+        <v>-0.01164584633295833</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1206171043133426</v>
+        <v>0.121095139572915</v>
       </c>
       <c r="C91">
-        <v>0.02026232409400879</v>
+        <v>-0.02084119828536154</v>
       </c>
       <c r="D91">
-        <v>-0.008263352691127605</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0163118622629959</v>
+      </c>
+      <c r="E91">
+        <v>0.05458031769233859</v>
+      </c>
+      <c r="F91">
+        <v>-0.00122573601858118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1392393831118086</v>
+        <v>0.1468198119166252</v>
       </c>
       <c r="C92">
-        <v>0.01382100206079303</v>
+        <v>-0.02566803270310165</v>
       </c>
       <c r="D92">
-        <v>-0.3051841756990504</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2913222609222738</v>
+      </c>
+      <c r="E92">
+        <v>-0.1026916271949907</v>
+      </c>
+      <c r="F92">
+        <v>-0.01904067004998078</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1405279610476512</v>
+        <v>0.1523343596014639</v>
       </c>
       <c r="C93">
-        <v>0.01925838474650124</v>
+        <v>-0.02968350368438243</v>
       </c>
       <c r="D93">
-        <v>-0.2701416389187636</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2651807627736695</v>
+      </c>
+      <c r="E93">
+        <v>-0.07598785042189708</v>
+      </c>
+      <c r="F93">
+        <v>-0.001215599302862901</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1341631526796037</v>
+        <v>0.1273203060272561</v>
       </c>
       <c r="C94">
-        <v>0.02741892847561985</v>
+        <v>-0.0255497388552022</v>
       </c>
       <c r="D94">
-        <v>0.04410768351225008</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03990391247172446</v>
+      </c>
+      <c r="E94">
+        <v>0.05658850879846746</v>
+      </c>
+      <c r="F94">
+        <v>0.03563227991738618</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1236708630514787</v>
+        <v>0.1267141265957305</v>
       </c>
       <c r="C95">
-        <v>0.009450198355930958</v>
+        <v>-0.003293878628844379</v>
       </c>
       <c r="D95">
-        <v>0.0858967306194913</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09872436489688578</v>
+      </c>
+      <c r="E95">
+        <v>0.05384768258988211</v>
+      </c>
+      <c r="F95">
+        <v>-0.002415189517527048</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.12109680843323</v>
+        <v>0.1146128347516374</v>
       </c>
       <c r="C96">
-        <v>-0.9868876608683481</v>
+        <v>0.9865609565343184</v>
       </c>
       <c r="D96">
-        <v>-0.01294891939556502</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05151183810433332</v>
+      </c>
+      <c r="E96">
+        <v>0.05138320853254981</v>
+      </c>
+      <c r="F96">
+        <v>0.04257160005802454</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1940594427212439</v>
+        <v>0.1947976290452785</v>
       </c>
       <c r="C97">
-        <v>-0.005135984807702622</v>
+        <v>0.005444810714855594</v>
       </c>
       <c r="D97">
-        <v>-0.01253267799119799</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02075569958158118</v>
+      </c>
+      <c r="E97">
+        <v>0.02186705462531635</v>
+      </c>
+      <c r="F97">
+        <v>-0.0927412410917038</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1998818353259185</v>
+        <v>0.2067171183420347</v>
       </c>
       <c r="C98">
-        <v>0.01193497826498385</v>
+        <v>-0.007811391810745642</v>
       </c>
       <c r="D98">
-        <v>0.009011617594555993</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01416432633650902</v>
+      </c>
+      <c r="E98">
+        <v>-0.07413349948878173</v>
+      </c>
+      <c r="F98">
+        <v>-0.09062805932846578</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05544950318486301</v>
+        <v>0.05560374118313614</v>
       </c>
       <c r="C99">
-        <v>-0.001887237153322842</v>
+        <v>0.004147666845523859</v>
       </c>
       <c r="D99">
-        <v>0.02633534788356734</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03847525521868036</v>
+      </c>
+      <c r="E99">
+        <v>0.02139110381452217</v>
+      </c>
+      <c r="F99">
+        <v>0.003832150138924336</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1429060651809667</v>
+        <v>0.1291510684265899</v>
       </c>
       <c r="C100">
-        <v>-0.03841376636498617</v>
+        <v>0.05152500087742435</v>
       </c>
       <c r="D100">
-        <v>0.402455820397609</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3515619414510829</v>
+      </c>
+      <c r="E100">
+        <v>-0.8831744914877668</v>
+      </c>
+      <c r="F100">
+        <v>-0.1647486714275965</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02519644147300834</v>
+        <v>0.02854135115853037</v>
       </c>
       <c r="C101">
-        <v>0.009535193574363615</v>
+        <v>-0.008861935783154151</v>
       </c>
       <c r="D101">
-        <v>0.02467413251518665</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03069395878565963</v>
+      </c>
+      <c r="E101">
+        <v>0.01258843785081805</v>
+      </c>
+      <c r="F101">
+        <v>-0.01503344543379301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
